--- a/biology/Botanique/Parc_Roger-Salengro_(Clichy)/Parc_Roger-Salengro_(Clichy).xlsx
+++ b/biology/Botanique/Parc_Roger-Salengro_(Clichy)/Parc_Roger-Salengro_(Clichy).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Roger-Salengro est un espace vert de la ville de Clichy. 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve dans le triangle délimité par la rue Villeneuve, la rue du Général-Roguet et le boulevard du Général-Leclerc.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte le nom de l'homme politique français Roger Salengro (1890-1936).
 </t>
@@ -574,11 +590,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc provient du morcellement de la propriété de Madame Veuve Léo Delibes, fille de la comédienne Mademoiselle Denain.
-Une portion est utilisée pour la construction de l'actuelle maison des associations, le reste en jardin public, aménagé dès 1897, par l'architecte-voyer Bertrand Sincholle[1]. Il est inauguré en 1910.
-Le parc s’est alors appelé « parc Denain » pendant plus de 40 ans[2].
+Une portion est utilisée pour la construction de l'actuelle maison des associations, le reste en jardin public, aménagé dès 1897, par l'architecte-voyer Bertrand Sincholle. Il est inauguré en 1910.
+Le parc s’est alors appelé « parc Denain » pendant plus de 40 ans.
 Il est renommé « parc Roger-Salengo » en 1937.
 </t>
         </is>
